--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43011,6 +43011,41 @@
         <v>195100</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>776400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43046,6 +43046,41 @@
         <v>776400</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>1874700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43081,6 +43081,41 @@
         <v>1874700</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>2494500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43116,6 +43116,41 @@
         <v>2494500</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>393400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43151,6 +43151,41 @@
         <v>393400</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>670800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43186,6 +43186,41 @@
         <v>670800</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>648300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43221,6 +43221,41 @@
         <v>648300</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.835</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>325200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43256,6 +43256,41 @@
         <v>325200</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>322500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43291,6 +43291,41 @@
         <v>322500</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>368800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43326,6 +43326,41 @@
         <v>368800</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>1172900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43361,6 +43361,41 @@
         <v>1172900</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>495500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43396,6 +43396,41 @@
         <v>495500</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>291800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43431,6 +43431,76 @@
         <v>291800</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>965100</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>1766700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43501,6 +43501,76 @@
         <v>1766700</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>769800</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>330300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43571,6 +43571,41 @@
         <v>330300</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>191500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43606,6 +43606,41 @@
         <v>191500</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>456000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43641,6 +43641,41 @@
         <v>456000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>354200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43676,6 +43676,41 @@
         <v>354200</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>1798500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43711,6 +43711,76 @@
         <v>1798500</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>851000</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>763400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43781,6 +43781,41 @@
         <v>763400</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>1798900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43816,6 +43816,41 @@
         <v>1798900</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>1524400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1778"/>
+  <dimension ref="A1:I1779"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62646,6 +62646,41 @@
         <v>1524400</v>
       </c>
     </row>
+    <row r="1779">
+      <c r="A1779" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1779" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1779" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D1779" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E1779" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F1779" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="G1779" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1779" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I1779" t="n">
+        <v>1177200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1779"/>
+  <dimension ref="A1:I1780"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62681,6 +62681,41 @@
         <v>1177200</v>
       </c>
     </row>
+    <row r="1780">
+      <c r="A1780" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1780" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1780" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D1780" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E1780" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F1780" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G1780" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H1780" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1780" t="n">
+        <v>1327300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1780"/>
+  <dimension ref="A1:I1781"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62716,6 +62716,41 @@
         <v>1327300</v>
       </c>
     </row>
+    <row r="1781">
+      <c r="A1781" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1781" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1781" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D1781" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E1781" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1781" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1781" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1781" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="I1781" t="n">
+        <v>724700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1781"/>
+  <dimension ref="A1:I1782"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62751,6 +62751,41 @@
         <v>724700</v>
       </c>
     </row>
+    <row r="1782">
+      <c r="A1782" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1782" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1782" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D1782" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E1782" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="F1782" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G1782" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H1782" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I1782" t="n">
+        <v>1836600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1782"/>
+  <dimension ref="A1:I1783"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62786,6 +62786,41 @@
         <v>1836600</v>
       </c>
     </row>
+    <row r="1783">
+      <c r="A1783" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1783" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1783" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D1783" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E1783" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="F1783" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G1783" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="H1783" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1783" t="n">
+        <v>1624200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1783"/>
+  <dimension ref="A1:I1784"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62821,6 +62821,41 @@
         <v>1624200</v>
       </c>
     </row>
+    <row r="1784">
+      <c r="A1784" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1784" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1784" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D1784" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E1784" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F1784" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="G1784" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H1784" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I1784" t="n">
+        <v>1132900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1784"/>
+  <dimension ref="A1:I1785"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62856,6 +62856,41 @@
         <v>1132900</v>
       </c>
     </row>
+    <row r="1785">
+      <c r="A1785" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1785" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1785" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D1785" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E1785" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F1785" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G1785" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H1785" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I1785" t="n">
+        <v>1333600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1785"/>
+  <dimension ref="A1:I1786"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62891,6 +62891,41 @@
         <v>1333600</v>
       </c>
     </row>
+    <row r="1786">
+      <c r="A1786" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1786" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1786" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D1786" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E1786" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F1786" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G1786" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H1786" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1786" t="n">
+        <v>3754400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1786"/>
+  <dimension ref="A1:I1787"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62926,6 +62926,41 @@
         <v>3754400</v>
       </c>
     </row>
+    <row r="1787">
+      <c r="A1787" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1787" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1787" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D1787" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E1787" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F1787" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G1787" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H1787" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I1787" t="n">
+        <v>1773500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1787"/>
+  <dimension ref="A1:I1788"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62961,6 +62961,41 @@
         <v>1773500</v>
       </c>
     </row>
+    <row r="1788">
+      <c r="A1788" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1788" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1788" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D1788" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E1788" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1788" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1788" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1788" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1788" t="n">
+        <v>1770400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1788"/>
+  <dimension ref="A1:I1789"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62996,6 +62996,41 @@
         <v>1770400</v>
       </c>
     </row>
+    <row r="1789">
+      <c r="A1789" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1789" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1789" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D1789" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E1789" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1789" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1789" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H1789" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1789" t="n">
+        <v>842700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1789"/>
+  <dimension ref="A1:I1790"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63031,6 +63031,41 @@
         <v>842700</v>
       </c>
     </row>
+    <row r="1790">
+      <c r="A1790" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1790" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1790" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D1790" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E1790" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1790" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G1790" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1790" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1790" t="n">
+        <v>1769100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1790"/>
+  <dimension ref="A1:I1791"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63066,6 +63066,41 @@
         <v>1769100</v>
       </c>
     </row>
+    <row r="1791">
+      <c r="A1791" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1791" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1791" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D1791" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E1791" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="F1791" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="G1791" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="H1791" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I1791" t="n">
+        <v>2625300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1791"/>
+  <dimension ref="A1:I1792"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63101,6 +63101,41 @@
         <v>2625300</v>
       </c>
     </row>
+    <row r="1792">
+      <c r="A1792" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1792" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1792" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D1792" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E1792" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F1792" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1792" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H1792" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1792" t="n">
+        <v>829600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1792"/>
+  <dimension ref="A1:I1793"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63136,6 +63136,41 @@
         <v>829600</v>
       </c>
     </row>
+    <row r="1793">
+      <c r="A1793" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1793" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1793" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D1793" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E1793" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="F1793" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G1793" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1793" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1793" t="n">
+        <v>909500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2342"/>
+  <dimension ref="A1:I2343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82386,6 +82386,41 @@
         <v>909500</v>
       </c>
     </row>
+    <row r="2343">
+      <c r="A2343" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2343" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2343" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D2343" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E2343" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F2343" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G2343" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H2343" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I2343" t="n">
+        <v>828300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2343"/>
+  <dimension ref="A1:I2344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82421,6 +82421,41 @@
         <v>828300</v>
       </c>
     </row>
+    <row r="2344">
+      <c r="A2344" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2344" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2344" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D2344" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E2344" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="F2344" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="G2344" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H2344" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I2344" t="n">
+        <v>5454300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2344"/>
+  <dimension ref="A1:I2345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82456,6 +82456,41 @@
         <v>5454300</v>
       </c>
     </row>
+    <row r="2345">
+      <c r="A2345" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2345" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2345" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D2345" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E2345" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F2345" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="G2345" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H2345" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="I2345" t="n">
+        <v>2021200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2345"/>
+  <dimension ref="A1:I2346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82491,6 +82491,41 @@
         <v>2021200</v>
       </c>
     </row>
+    <row r="2346">
+      <c r="A2346" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2346" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2346" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D2346" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E2346" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="F2346" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G2346" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H2346" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I2346" t="n">
+        <v>3087300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2346"/>
+  <dimension ref="A1:I2347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82526,6 +82526,41 @@
         <v>3087300</v>
       </c>
     </row>
+    <row r="2347">
+      <c r="A2347" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2347" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2347" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D2347" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E2347" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="F2347" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G2347" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H2347" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I2347" t="n">
+        <v>1639600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2347"/>
+  <dimension ref="A1:I2348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82561,6 +82561,41 @@
         <v>1639600</v>
       </c>
     </row>
+    <row r="2348">
+      <c r="A2348" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2348" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2348" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D2348" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E2348" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2348" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2348" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H2348" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I2348" t="n">
+        <v>591700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2348"/>
+  <dimension ref="A1:I2349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82596,6 +82596,41 @@
         <v>591700</v>
       </c>
     </row>
+    <row r="2349">
+      <c r="A2349" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2349" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2349" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D2349" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E2349" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="F2349" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="G2349" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="H2349" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I2349" t="n">
+        <v>1800900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2349"/>
+  <dimension ref="A1:I2350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82631,6 +82631,41 @@
         <v>1800900</v>
       </c>
     </row>
+    <row r="2350">
+      <c r="A2350" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2350" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2350" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D2350" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E2350" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F2350" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G2350" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="H2350" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I2350" t="n">
+        <v>4837500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2350"/>
+  <dimension ref="A1:I2351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82666,6 +82666,41 @@
         <v>4837500</v>
       </c>
     </row>
+    <row r="2351">
+      <c r="A2351" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2351" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2351" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D2351" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E2351" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F2351" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G2351" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H2351" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="I2351" t="n">
+        <v>2639700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2351"/>
+  <dimension ref="A1:I2352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82701,6 +82701,41 @@
         <v>2639700</v>
       </c>
     </row>
+    <row r="2352">
+      <c r="A2352" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2352" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2352" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D2352" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E2352" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="F2352" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G2352" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H2352" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="I2352" t="n">
+        <v>3629500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2352"/>
+  <dimension ref="A1:I2354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82736,6 +82736,76 @@
         <v>3629500</v>
       </c>
     </row>
+    <row r="2353">
+      <c r="A2353" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2353" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2353" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D2353" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E2353" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="F2353" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G2353" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="H2353" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="I2353" t="n">
+        <v>2140000</v>
+      </c>
+    </row>
+    <row r="2354">
+      <c r="A2354" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2354" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2354" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D2354" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E2354" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F2354" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="G2354" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="H2354" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I2354" t="n">
+        <v>2107300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2354"/>
+  <dimension ref="A1:I2355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82806,6 +82806,41 @@
         <v>2107300</v>
       </c>
     </row>
+    <row r="2355">
+      <c r="A2355" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2355" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2355" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D2355" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E2355" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F2355" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="G2355" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H2355" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="I2355" t="n">
+        <v>1927400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2355"/>
+  <dimension ref="A1:I2358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82841,6 +82841,111 @@
         <v>1927400</v>
       </c>
     </row>
+    <row r="2356">
+      <c r="A2356" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2356" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2356" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D2356" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E2356" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F2356" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G2356" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="H2356" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I2356" t="n">
+        <v>1196600</v>
+      </c>
+    </row>
+    <row r="2357">
+      <c r="A2357" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2357" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2357" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D2357" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E2357" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F2357" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="G2357" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H2357" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I2357" t="n">
+        <v>416800</v>
+      </c>
+    </row>
+    <row r="2358">
+      <c r="A2358" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2358" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2358" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D2358" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E2358" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F2358" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G2358" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="H2358" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="I2358" t="n">
+        <v>684500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2358"/>
+  <dimension ref="A1:I2359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82946,6 +82946,41 @@
         <v>684500</v>
       </c>
     </row>
+    <row r="2359">
+      <c r="A2359" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2359" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2359" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D2359" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E2359" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="F2359" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="G2359" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H2359" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I2359" t="n">
+        <v>4313500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2359"/>
+  <dimension ref="A1:I2360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82981,6 +82981,41 @@
         <v>4313500</v>
       </c>
     </row>
+    <row r="2360">
+      <c r="A2360" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2360" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2360" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D2360" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E2360" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="F2360" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="G2360" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H2360" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="I2360" t="n">
+        <v>6839600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0090.xlsx
+++ b/data/0090.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2360"/>
+  <dimension ref="A1:I2363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83016,6 +83016,111 @@
         <v>6839600</v>
       </c>
     </row>
+    <row r="2361">
+      <c r="A2361" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2361" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2361" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D2361" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E2361" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="F2361" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G2361" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="H2361" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I2361" t="n">
+        <v>3972900</v>
+      </c>
+    </row>
+    <row r="2362">
+      <c r="A2362" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2362" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2362" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D2362" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E2362" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F2362" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G2362" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H2362" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I2362" t="n">
+        <v>2590400</v>
+      </c>
+    </row>
+    <row r="2363">
+      <c r="A2363" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2363" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2363" t="inlineStr">
+        <is>
+          <t>0090</t>
+        </is>
+      </c>
+      <c r="D2363" t="inlineStr">
+        <is>
+          <t>ELSOFT</t>
+        </is>
+      </c>
+      <c r="E2363" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="F2363" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G2363" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="H2363" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I2363" t="n">
+        <v>2136300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
